--- a/results/Office Texture Rotation PET.xlsx
+++ b/results/Office Texture Rotation PET.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -68,6 +68,18 @@
   <si>
     <t>PCA</t>
   </si>
+  <si>
+    <t>avg1000</t>
+  </si>
+  <si>
+    <t>min-er</t>
+  </si>
+  <si>
+    <t>fm2d</t>
+  </si>
+  <si>
+    <t>fvr</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,13 +110,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,11 +653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="537863168"/>
-        <c:axId val="537867480"/>
+        <c:axId val="198193464"/>
+        <c:axId val="198193856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="537863168"/>
+        <c:axId val="198193464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537867480"/>
+        <c:crossAx val="198193856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537867480"/>
+        <c:axId val="198193856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -715,7 +749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537863168"/>
+        <c:crossAx val="198193464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1614,11 +1648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="537863560"/>
-        <c:axId val="537867872"/>
+        <c:axId val="199968176"/>
+        <c:axId val="199973664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537863560"/>
+        <c:axId val="199968176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,7 +1661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537867872"/>
+        <c:crossAx val="199973664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1635,7 +1669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537867872"/>
+        <c:axId val="199973664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1648,7 +1682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537863560"/>
+        <c:crossAx val="199968176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2167,11 +2201,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="537869048"/>
-        <c:axId val="537869440"/>
+        <c:axId val="199972488"/>
+        <c:axId val="199974056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="537869048"/>
+        <c:axId val="199972488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537869440"/>
+        <c:crossAx val="199974056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2217,7 +2251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537869440"/>
+        <c:axId val="199974056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2263,7 +2297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537869048"/>
+        <c:crossAx val="199972488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2318,7 +2352,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2358,15 +2392,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>328611</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2386,7 +2420,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6334125" y="4781549"/>
+    <xdr:pos x="6477000" y="428624"/>
     <xdr:ext cx="6191249" cy="4219575"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2697,10 +2731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3166,7 @@
         <v>2.6948400000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3162,7 +3196,7 @@
         <v>4.4064399999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3192,7 +3226,7 @@
         <v>2850.88</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3222,7 +3256,7 @@
         <v>6.4774500000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3252,7 +3286,7 @@
         <v>2278.71</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3282,7 +3316,7 @@
         <v>19.1281</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3312,7 +3346,7 @@
         <v>7.7222299999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3342,7 +3376,7 @@
         <v>5.6428599999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3372,7 +3406,7 @@
         <v>7.5863199999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3402,7 +3436,7 @@
         <v>5.0484</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3432,7 +3466,7 @@
         <v>5.5288599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3462,7 +3496,7 @@
         <v>4.7472000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3492,7 +3526,7 @@
         <v>9.2421399999999991</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3523,8 +3557,26 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3564,925 +3616,1325 @@
         <f>MIN(G31:I31)</f>
         <v>0.20471472338364982</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f>MIN(B31:J31)</f>
+        <v>0.20471472338364982</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q44" si="2">IF($L31=D31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B53" si="2">B5</f>
+        <f t="shared" ref="B32:B53" si="3">B5</f>
         <v>13.303100000000001</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:I32" si="3">C5/$B32</f>
+        <f t="shared" ref="C32:I32" si="4">C5/$B32</f>
         <v>0.15289143132051924</v>
       </c>
       <c r="D32">
+        <f t="shared" si="4"/>
+        <v>0.33498658207485471</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>0.15231863249919192</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>1.1398922055761438</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0.16172771759965721</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>0.21793266231179198</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>0.15416707383993203</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J53" si="5">MIN(G32:I32)</f>
+        <v>0.15416707383993203</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L44" si="6">MIN(B32:J32)</f>
+        <v>0.15231863249919192</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M44" si="7">IF($L32=C32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q44" si="8">IF($L32=J32,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:A53" si="9">A32+1</f>
+        <v>3</v>
+      </c>
+      <c r="B33">
         <f t="shared" si="3"/>
-        <v>0.33498658207485471</v>
-      </c>
-      <c r="E32">
+        <v>28.1495</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:I33" si="10">C6/$B33</f>
+        <v>8.1661485994422633E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="10"/>
+        <v>0.11095756585374519</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="10"/>
+        <v>8.3926179861098779E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>0.89611538393221912</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="10"/>
+        <v>8.3656548073678047E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>9.1873745537220899E-2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="10"/>
+        <v>8.5538641894172193E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>8.3656548073678047E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>8.1661485994422633E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B34">
         <f t="shared" si="3"/>
-        <v>0.15231863249919192</v>
-      </c>
-      <c r="F32">
+        <v>35.973100000000002</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:I34" si="11">C7/$B34</f>
+        <v>5.8335812037327892E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>9.4412213570695874E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="11"/>
+        <v>5.9881133402459062E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="11"/>
+        <v>0.96596623588181174</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>5.8386683382861085E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>6.8523146462217591E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="11"/>
+        <v>5.9858060606397555E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>5.8386683382861085E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>5.8335812037327892E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B35">
         <f t="shared" si="3"/>
-        <v>1.1398922055761438</v>
-      </c>
-      <c r="G32">
+        <v>3.3831699999999998</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:I35" si="12">C8/$B35</f>
+        <v>0.75877948787675464</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="12"/>
+        <v>1.2074917902440609</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="12"/>
+        <v>0.79746805510807917</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="12"/>
+        <v>1.0177289346973402</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="12"/>
+        <v>0.78229589408749789</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="12"/>
+        <v>1.0599171782677195</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="12"/>
+        <v>0.80539848721760965</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0.78229589408749789</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>0.75877948787675464</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="3"/>
-        <v>0.16172771759965721</v>
-      </c>
-      <c r="H32">
+        <v>2.2082099999999998</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:I36" si="13">C9/$B36</f>
+        <v>0.96120839956344739</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="13"/>
+        <v>1.738163489885473</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="13"/>
+        <v>0.96676040775107441</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="13"/>
+        <v>1.0182455472984908</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="13"/>
+        <v>1.0042975985073883</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>1.3623115555132892</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>1.0111176020396611</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>1.0042975985073883</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>0.96120839956344739</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
         <f t="shared" si="3"/>
-        <v>0.21793266231179198</v>
-      </c>
-      <c r="I32">
+        <v>3.1070899999999999</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:I37" si="14">C10/$B37</f>
+        <v>0.62656376223411614</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="14"/>
+        <v>0.63985272393139569</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>0.62857850915164992</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>1.0262013652646045</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>0.65219546263545636</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>1.0721028357723787</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>0.6185691434750844</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.6185691434750844</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>0.6185691434750844</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B38">
         <f t="shared" si="3"/>
-        <v>0.15416707383993203</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ref="J32:J53" si="4">MIN(G32:I32)</f>
-        <v>0.15416707383993203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" ref="A33:A53" si="5">A32+1</f>
-        <v>3</v>
-      </c>
-      <c r="B33">
+        <v>5.26417</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:I38" si="15">C11/$B38</f>
+        <v>0.35289513826491165</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="15"/>
+        <v>3.0485907559976217</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>0.40621028576204798</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>0.9566636335832619</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>0.36359578053140379</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>0.50848471838865394</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>0.40369326978422049</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>0.36359578053140379</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0.35289513826491165</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
-        <v>28.1495</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ref="C33:I33" si="6">C6/$B33</f>
-        <v>8.1661485994422633E-2</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="6"/>
-        <v>0.11095756585374519</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="6"/>
-        <v>8.3926179861098779E-2</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="6"/>
-        <v>0.89611538393221912</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="6"/>
-        <v>8.3656548073678047E-2</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="6"/>
-        <v>9.1873745537220899E-2</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="6"/>
-        <v>8.5538641894172193E-2</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>8.3656548073678047E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="2"/>
-        <v>35.973100000000002</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:I34" si="7">C7/$B34</f>
-        <v>5.8335812037327892E-2</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="7"/>
-        <v>9.4412213570695874E-2</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="7"/>
-        <v>5.9881133402459062E-2</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="7"/>
-        <v>0.96596623588181174</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="7"/>
-        <v>5.8386683382861085E-2</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="7"/>
-        <v>6.8523146462217591E-2</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="7"/>
-        <v>5.9858060606397555E-2</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="4"/>
-        <v>5.8386683382861085E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="2"/>
-        <v>3.3831699999999998</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:I35" si="8">C8/$B35</f>
-        <v>0.75877948787675464</v>
-      </c>
-      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="8"/>
-        <v>1.2074917902440609</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="8"/>
-        <v>0.79746805510807917</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="8"/>
-        <v>1.0177289346973402</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
-        <v>0.78229589408749789</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="8"/>
-        <v>1.0599171782677195</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="8"/>
-        <v>0.80539848721760965</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>0.78229589408749789</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="2"/>
-        <v>2.2082099999999998</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:I36" si="9">C9/$B36</f>
-        <v>0.96120839956344739</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="9"/>
-        <v>1.738163489885473</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="9"/>
-        <v>0.96676040775107441</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="9"/>
-        <v>1.0182455472984908</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="9"/>
-        <v>1.0042975985073883</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="9"/>
-        <v>1.3623115555132892</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="9"/>
-        <v>1.0111176020396611</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="4"/>
-        <v>1.0042975985073883</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>3.1070899999999999</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:I37" si="10">C10/$B37</f>
-        <v>0.62656376223411614</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="10"/>
-        <v>0.63985272393139569</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="10"/>
-        <v>0.62857850915164992</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="10"/>
-        <v>1.0262013652646045</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="10"/>
-        <v>0.65219546263545636</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="10"/>
-        <v>1.0721028357723787</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="10"/>
-        <v>0.6185691434750844</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="4"/>
-        <v>0.6185691434750844</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="2"/>
-        <v>5.26417</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:I38" si="11">C11/$B38</f>
-        <v>0.35289513826491165</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="11"/>
-        <v>3.0485907559976217</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="11"/>
-        <v>0.40621028576204798</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="11"/>
-        <v>0.9566636335832619</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="11"/>
-        <v>0.36359578053140379</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="11"/>
-        <v>0.50848471838865394</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="11"/>
-        <v>0.40369326978422049</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="4"/>
-        <v>0.36359578053140379</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>A38+1</f>
         <v>9</v>
       </c>
       <c r="B39">
+        <f t="shared" si="3"/>
+        <v>6.28878</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:I39" si="16">C12/$B39</f>
+        <v>0.47099437410753758</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="16"/>
+        <v>0.51929150010017844</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="16"/>
+        <v>0.46302621494153079</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="16"/>
+        <v>1.0897582678993383</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="16"/>
+        <v>0.46147901500768035</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="16"/>
+        <v>0.54355057737748813</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="16"/>
+        <v>0.4790038767455691</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0.46147901500768035</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>0.46147901500768035</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
-        <v>6.28878</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:I39" si="12">C12/$B39</f>
-        <v>0.47099437410753758</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="12"/>
-        <v>0.51929150010017844</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="12"/>
-        <v>0.46302621494153079</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="12"/>
-        <v>1.0897582678993383</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="12"/>
-        <v>0.46147901500768035</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="12"/>
-        <v>0.54355057737748813</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="12"/>
-        <v>0.4790038767455691</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="4"/>
-        <v>0.46147901500768035</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A39+1</f>
         <v>10</v>
       </c>
       <c r="B40">
+        <f t="shared" si="3"/>
+        <v>2.27691</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:I40" si="17">C13/$B40</f>
+        <v>0.9815627319481226</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="17"/>
+        <v>1.016987935403683</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="17"/>
+        <v>0.92438436301830118</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="17"/>
+        <v>0.98921784348085784</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="17"/>
+        <v>0.98255091329916422</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="17"/>
+        <v>0.9945408470251349</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="17"/>
+        <v>0.94747706321286296</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0.94747706321286296</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>0.92438436301830118</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="2"/>
-        <v>2.27691</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:I40" si="13">C13/$B40</f>
-        <v>0.9815627319481226</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="13"/>
-        <v>1.016987935403683</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="13"/>
-        <v>0.92438436301830118</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="13"/>
-        <v>0.98921784348085784</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="13"/>
-        <v>0.98255091329916422</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="13"/>
-        <v>0.9945408470251349</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="13"/>
-        <v>0.94747706321286296</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="4"/>
-        <v>0.94747706321286296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>7.0245300000000004</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:I41" si="18">C14/$B41</f>
+        <v>0.47759209512949619</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="18"/>
+        <v>0.50571212593582771</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="18"/>
+        <v>0.48266432060223241</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="18"/>
+        <v>0.94368875924794959</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="18"/>
+        <v>0.47563466879634647</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="18"/>
+        <v>0.50010320975211153</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="18"/>
+        <v>0.48074248383877638</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="B41">
+        <v>0.47563466879634647</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>0.47563466879634647</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="2"/>
-        <v>7.0245300000000004</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:I41" si="14">C14/$B41</f>
-        <v>0.47759209512949619</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="14"/>
-        <v>0.50571212593582771</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="14"/>
-        <v>0.48266432060223241</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="14"/>
-        <v>0.94368875924794959</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="14"/>
-        <v>0.47563466879634647</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="14"/>
-        <v>0.50010320975211153</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="14"/>
-        <v>0.48074248383877638</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="4"/>
-        <v>0.47563466879634647</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>3.08283</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:I42" si="19">C15/$B42</f>
+        <v>0.98745308693635403</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="19"/>
+        <v>0.96898953234528007</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="19"/>
+        <v>0.94678915152635734</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="19"/>
+        <v>0.98362867884378968</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="19"/>
+        <v>1.0034838119520053</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="19"/>
+        <v>1.1507024389927436</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="19"/>
+        <v>0.95166778576827138</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="B42">
+        <v>0.95166778576827138</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>0.94678915152635734</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="2"/>
-        <v>3.08283</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:I42" si="15">C15/$B42</f>
-        <v>0.98745308693635403</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="15"/>
-        <v>0.96898953234528007</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="15"/>
-        <v>0.94678915152635734</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="15"/>
-        <v>0.98362867884378968</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="15"/>
-        <v>1.0034838119520053</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="15"/>
-        <v>1.1507024389927436</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="15"/>
-        <v>0.95166778576827138</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="4"/>
-        <v>0.95166778576827138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>4.07219</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:I43" si="20">C16/$B43</f>
+        <v>0.66786667616196682</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="20"/>
+        <v>0.67933225119653062</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="20"/>
+        <v>0.98952406444689478</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="20"/>
+        <v>0.69919134421527485</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="20"/>
+        <v>0.79205783620115966</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="20"/>
+        <v>0.6617667643209183</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="B43">
+        <v>0.6617667643209183</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>0.6617667643209183</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="2"/>
-        <v>4.07219</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43:I43" si="16">C16/$B43</f>
-        <v>0.66786667616196682</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="16"/>
-        <v>0.67933225119653062</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="16"/>
-        <v>0.98952406444689478</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="16"/>
-        <v>0.69919134421527485</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="16"/>
-        <v>0.79205783620115966</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="16"/>
-        <v>0.6617667643209183</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="4"/>
-        <v>0.6617667643209183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>6.3175400000000002</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:I44" si="21">C17/$B44</f>
+        <v>0.63611627310630403</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="21"/>
+        <v>1.5609841805512905</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="21"/>
+        <v>0.59588700665132321</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="21"/>
+        <v>1.0073873691341884</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="21"/>
+        <v>0.78765627127014626</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="21"/>
+        <v>5.8557444828208443</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="21"/>
+        <v>0.69749301152030696</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="B44">
+        <v>0.69749301152030696</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>0.59588700665132321</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="2"/>
-        <v>6.3175400000000002</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ref="C44:I44" si="17">C17/$B44</f>
-        <v>0.63611627310630403</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="17"/>
-        <v>1.5609841805512905</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="17"/>
-        <v>0.59588700665132321</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="17"/>
-        <v>1.0073873691341884</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="17"/>
-        <v>0.78765627127014626</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="17"/>
-        <v>5.8557444828208443</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="17"/>
-        <v>0.69749301152030696</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="4"/>
-        <v>0.69749301152030696</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>13.250400000000001</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:I45" si="22">C18/$B45</f>
+        <v>0.75778089718046249</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="22"/>
+        <v>1.5949405300972046</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="22"/>
+        <v>0.60551530519833363</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="22"/>
+        <v>0.98237789047877788</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="22"/>
+        <v>1.4846948016663646</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="22"/>
+        <v>884.51669383565775</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="22"/>
+        <v>215.15425949405301</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="2"/>
-        <v>13.250400000000001</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ref="C45:I45" si="18">C18/$B45</f>
-        <v>0.75778089718046249</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="18"/>
-        <v>1.5949405300972046</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="18"/>
-        <v>0.60551530519833363</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="18"/>
-        <v>0.98237789047877788</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="18"/>
         <v>1.4846948016663646</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="18"/>
-        <v>884.51669383565775</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="18"/>
-        <v>215.15425949405301</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="4"/>
-        <v>1.4846948016663646</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3">
+        <f>ROUND(AVERAGE(M31:M44)*100,2)</f>
+        <v>35.71</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" ref="N45:Q45" si="23">ROUND(AVERAGE(N31:N44)*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="23"/>
+        <v>28.57</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="23"/>
+        <v>35.71</v>
+      </c>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>13.5916</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:I46" si="24">C19/$B46</f>
+        <v>0.47767959622119543</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="24"/>
+        <v>0.80802113069837256</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="24"/>
+        <v>0.62137643838841627</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="24"/>
+        <v>1.004958945230878</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="24"/>
+        <v>0.97897966391006208</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="24"/>
+        <v>187.83881220753997</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="24"/>
+        <v>0.47657744489243359</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="2"/>
-        <v>13.5916</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ref="C46:I46" si="19">C19/$B46</f>
-        <v>0.47767959622119543</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="19"/>
-        <v>0.80802113069837256</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="19"/>
-        <v>0.62137643838841627</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="19"/>
-        <v>1.004958945230878</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="19"/>
-        <v>0.97897966391006208</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="19"/>
-        <v>187.83881220753997</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="19"/>
         <v>0.47657744489243359</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="4"/>
-        <v>0.47657744489243359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>20.663799999999998</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:I47" si="25">C20/$B47</f>
+        <v>0.94515529573456969</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="25"/>
+        <v>1.1373222737347439</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="25"/>
+        <v>0.92761737918485465</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="25"/>
+        <v>0.95314511367705845</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="25"/>
+        <v>1.4323938481789411</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="25"/>
+        <v>215.86397468035889</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="25"/>
+        <v>110.27545756346849</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="2"/>
-        <v>20.663799999999998</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ref="C47:I47" si="20">C20/$B47</f>
-        <v>0.94515529573456969</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="20"/>
-        <v>1.1373222737347439</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="20"/>
-        <v>0.92761737918485465</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="20"/>
-        <v>0.95314511367705845</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="20"/>
         <v>1.4323938481789411</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="20"/>
-        <v>215.86397468035889</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="20"/>
-        <v>110.27545756346849</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="4"/>
-        <v>1.4323938481789411</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>22.981100000000001</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:I48" si="26">C21/$B48</f>
+        <v>1.0046864597430061</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="26"/>
+        <v>1.023436650116835</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="26"/>
+        <v>0.8240510680515728</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="26"/>
+        <v>1.0668331803090365</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="26"/>
+        <v>1.1776894926700636</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="26"/>
+        <v>1.3817354260675074</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="26"/>
+        <v>0.8323404884883665</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="2"/>
-        <v>22.981100000000001</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ref="C48:I48" si="21">C21/$B48</f>
-        <v>1.0046864597430061</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="21"/>
-        <v>1.023436650116835</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="21"/>
-        <v>0.8240510680515728</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="21"/>
-        <v>1.0668331803090365</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="21"/>
-        <v>1.1776894926700636</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="21"/>
-        <v>1.3817354260675074</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="21"/>
-        <v>0.8323404884883665</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="4"/>
         <v>0.8323404884883665</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>7.7749499999999996</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:I49" si="27">C22/$B49</f>
+        <v>1.1261255699393566</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="27"/>
+        <v>1.0870294985819844</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="27"/>
+        <v>0.94428645843381631</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="27"/>
+        <v>1.0231358401018658</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="27"/>
+        <v>1.4252181686055858</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="27"/>
+        <v>1.6371552228631696</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="27"/>
+        <v>0.99321924899838587</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="2"/>
-        <v>7.7749499999999996</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ref="C49:I49" si="22">C22/$B49</f>
-        <v>1.1261255699393566</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="22"/>
-        <v>1.0870294985819844</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="22"/>
-        <v>0.94428645843381631</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="22"/>
-        <v>1.0231358401018658</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="22"/>
-        <v>1.4252181686055858</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="22"/>
-        <v>1.6371552228631696</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="22"/>
-        <v>0.99321924899838587</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="4"/>
         <v>0.99321924899838587</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>7.6809799999999999</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:I50" si="28">C23/$B50</f>
+        <v>0.74456644855213794</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="28"/>
+        <v>3.2598053894164547</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="28"/>
+        <v>0.7265700470512878</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="28"/>
+        <v>0.98505399050641973</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="28"/>
+        <v>1.2372132201880488</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="28"/>
+        <v>0.98021736809625848</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="28"/>
+        <v>0.73465365096641311</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="2"/>
-        <v>7.6809799999999999</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ref="C50:I50" si="23">C23/$B50</f>
-        <v>0.74456644855213794</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="23"/>
-        <v>3.2598053894164547</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="23"/>
-        <v>0.7265700470512878</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="23"/>
-        <v>0.98505399050641973</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="23"/>
-        <v>1.2372132201880488</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="23"/>
-        <v>0.98021736809625848</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="23"/>
-        <v>0.73465365096641311</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="4"/>
         <v>0.73465365096641311</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>13.0052</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:I51" si="29">C24/$B51</f>
+        <v>0.6793182726909236</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="29"/>
+        <v>607.75843508750347</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="29"/>
+        <v>0.56617353058776487</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="29"/>
+        <v>1.0442361516931689</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="29"/>
+        <v>1.0758696521391442</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="29"/>
+        <v>1.2718220404146032</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="29"/>
+        <v>0.58332974502506685</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="2"/>
-        <v>13.0052</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ref="C51:I51" si="24">C24/$B51</f>
-        <v>0.6793182726909236</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="24"/>
-        <v>607.75843508750347</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="24"/>
-        <v>0.56617353058776487</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="24"/>
-        <v>1.0442361516931689</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="24"/>
-        <v>1.0758696521391442</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="24"/>
-        <v>1.2718220404146032</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="24"/>
-        <v>0.58332974502506685</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="4"/>
         <v>0.58332974502506685</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>5.00786</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:I52" si="30">C25/$B52</f>
+        <v>0.91366372063116774</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="30"/>
+        <v>1785.8546365114039</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="30"/>
+        <v>0.97609158402990504</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="30"/>
+        <v>0.99819483771511186</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="30"/>
+        <v>1.3594689148658308</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="30"/>
+        <v>1.660032429021578</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="30"/>
+        <v>1.0080952742289122</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="2"/>
-        <v>5.00786</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:I52" si="25">C25/$B52</f>
-        <v>0.91366372063116774</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="25"/>
-        <v>1785.8546365114039</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="25"/>
-        <v>0.97609158402990504</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="25"/>
-        <v>0.99819483771511186</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="25"/>
-        <v>1.3594689148658308</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="25"/>
-        <v>1.660032429021578</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="25"/>
-        <v>1.0080952742289122</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="4"/>
         <v>1.0080952742289122</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>9.8813999999999993</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:I53" si="31">C26/$B53</f>
+        <v>0.66033861598558918</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="31"/>
+        <v>0.60467241484000245</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="31"/>
+        <v>0.57338838626105615</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="31"/>
+        <v>0.99963669115712361</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="31"/>
+        <v>0.81228469650049595</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="31"/>
+        <v>0.88479972473536139</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="31"/>
+        <v>0.55952193009087781</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="2"/>
-        <v>9.8813999999999993</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ref="C53:I53" si="26">C26/$B53</f>
-        <v>0.66033861598558918</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="26"/>
-        <v>0.60467241484000245</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="26"/>
-        <v>0.57338838626105615</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="26"/>
-        <v>0.99963669115712361</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="26"/>
-        <v>0.81228469650049595</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="26"/>
-        <v>0.88479972473536139</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="26"/>
         <v>0.55952193009087781</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="4"/>
-        <v>0.55952193009087781</v>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <f>ROUND(AVERAGE(C31:C44)*1000,2)</f>
+        <v>530</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:J54" si="32">ROUND(AVERAGE(D31:D44)*1000,2)</f>
+        <v>934.53</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="32"/>
+        <v>528.47</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="32"/>
+        <v>1000.78</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="32"/>
+        <v>552.24</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="32"/>
+        <v>1032.8399999999999</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="32"/>
+        <v>540.09</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="32"/>
+        <v>533.23</v>
       </c>
     </row>
   </sheetData>
